--- a/vagas.xlsx
+++ b/vagas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Descrição</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -461,39 +466,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Estágio de TI</t>
+          <t>Estágio em Infraestrutura de TI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fibra do Brasil</t>
+          <t>Timenow</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Vitória e Região</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cargo: Estágio de TI Responsabilidades: Configurar e instalar softwares, servidores, roteadores, firewalls e outros dispositivos de rede. Monitorar o desempenho e a integridade da rede, firewall, notificar e aplicar as devidas correções. Resolver questões encaminhadas pelo suporte diagnosticando as infraestruturas local e de nuvem e solucionado seus problemas. Automatizar tarefas e monitorar sua eficácia. Criar, supervisionar e testar medidas de segurança (por exemplo, autenticação de acesso e recuperação de desastre). Comunicar-se com os usuários quando necessário. Manter documentação técnica completa. Sugerir melhorias de desempenho, capacidade e escalabilidade da rede. Projetar e implementar redes funcionais (LAN, WLAN, WAN). Demais atividades pertinentes ao setor. Competências Mínimo Exigido: Ensino superior cursando. Conhecimento em administração, configuração e otimização de Firewalls, roteadores, Switches, redes Wireless, IDS, IPS, Proxies e mecanismos de segurança em geral, além de conhecimento na estruturas de redes LAN, WAN e WLAN, segmentação, roteamento, protocolos e serviços (portas IP), VPN será um diferencial. Desejável: Saber trabalhar em equipe. Espirito de liderança. Ter excelente comunicação e relacionamento interpessoal. Vontade de crescer e se desenvolver dentro da empresa. Capacidade de organizar demandas. Ser atento aos detalhes e ser organizado. Ter comprometimento com prazos e qualidade. Perfil proativo, pontual, com senso analítico, de urgência e estratégico.
-Não informado
-A combinar
-Estagiário
-Fibra do Brasil
-Atua como distribuidora de produtos e matéria-prima para o corte industrial, produtos em metal duro (wideas) e produtos de embalagem e de proteção individual (EPIs).
-Máquinas/ Equipamentos/ Ferramentas
-Exibir mais
-Nível de experiência
-Estágio
-Tipo de emprego
-Tempo integral
-Função
-Tecnologia da informação
-Setores
-Fabricação de maquinário</t>
-        </is>
-      </c>
+          <t>Como você imagina o seu futuro? O que você deseja dele? E, mais importante, o que você está fazendo para que ele se torne possível?
+Há 26 anos temos engenhado um caminho que aponta para novos futuros possíveis, passando pela busca de uma realidade cada vez mais inclusiva, com garantia de respeito e equidade para todos.
+Neste ano, decidimos dar um passo à frente para mudarmos, de fato, a realidade. Afinal, o futuro é agora e queremos que você esteja nele conosco.
+Que tal ser um Time Player?
+O Time Players é o programa de estágio da Timenow. Por aqui, temos o compromisso de contribuir com a formação profissional e com o desenvolvimento de pessoas, além do incentivo à inovação e diversidade.
+.
+Então, se você quer trabalhar em um ambiente que incentiva o seu crescimento e experimentar a cultura de uma empresa que une a tradição da engenharia com a transformação provocada pela inovação, VEM SER TIME PLAYER! 💚
+Exibir mais
+Nível de experiência
+Não aplicável
+Tipo de emprego
+Tempo integral
+Função
+Educação e Treinamento
+Setores
+Fabricação de máquinas de automação</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -534,6 +540,7 @@
 Serviços de recursos humanos</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,102 +548,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Estágio de TI</t>
+          <t>Estágio para Cursos na área de tecnologia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Executiva Outsourcing</t>
+          <t>Up Estágio</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brasília, DF</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>Segunda a Sexta Feira das 08 as 14:15hrs - com 15min de intervalo
-Beneficios
-Formação Acadêmica:
-Não informado
-A combinar
-Estagiário
-EXECUTIVA OUTSOURCING
-Atividades de consultoria em gestão empresarial, exceto consultoria técnica específica
-Consultoria/ Auditoria
-Exibir mais
-Nível de experiência
-Estágio
-Tipo de emprego
-Tempo integral
-Função
-Tecnologia da informação
-Setores
-Serviços profissionais</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Estágio em Infraestrutura de TI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Timenow</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Vitória e Região</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Como você imagina o seu futuro? O que você deseja dele? E, mais importante, o que você está fazendo para que ele se torne possível?
-Há 26 anos temos engenhado um caminho que aponta para novos futuros possíveis, passando pela busca de uma realidade cada vez mais inclusiva, com garantia de respeito e equidade para todos.
-Neste ano, decidimos dar um passo à frente para mudarmos, de fato, a realidade. Afinal, o futuro é agora e queremos que você esteja nele conosco.
-Que tal ser um Time Player?
-O Time Players é o programa de estágio da Timenow. Por aqui, temos o compromisso de contribuir com a formação profissional e com o desenvolvimento de pessoas, além do incentivo à inovação e diversidade.
-.
-Então, se você quer trabalhar em um ambiente que incentiva o seu crescimento e experimentar a cultura de uma empresa que une a tradição da engenharia com a transformação provocada pela inovação, VEM SER TIME PLAYER! 💚
-Exibir mais
-Nível de experiência
-Não aplicável
-Tipo de emprego
-Tempo integral
-Função
-Educação e Treinamento
-Setores
-Fabricação de máquinas de automação</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Estágio para Cursos na área de tecnologia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Up Estágio</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Brasília, DF</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>ESTÁGIO PARA CURSOS NA ÁREA DE TECNOLOGIA 3 VAGA(S) ASA SUL Candidato Cursando: Estágio para Cursos na área de tecnologia 3 Vaga(s) A partir do 3 Semestre Local da Vaga: Asa Sul Carga Horária: 06 horas/dia de 08:00 às 14:00 ou de 12:00 às 18:00 ou à combinar Segunda à Sexta-feira Bolsa Auxílio: R$ 1.200,00 + Vale Transporte + Vale alimentação de R$ 930,00 por mês Atividades: Auxiliar projetos de tecnologia, monitoramento de sistemas e atividades correlatas com a área de TI. Inscreva-se em upestagio.com.br ou encaminhe o seu currículo para o email curriculosupestagio.com.br com o título: Estágio para Cursos na área de tecnologia - Asa Sul Requisitos: Ter conhecimentos em desenvolvimento, DBA, ORACLE, MYSQUL, redes, monitoramento de ativos em redes, microsoft, linux, AIX, inglês ou espanhol, noção de virtualização.
 Não informado
@@ -656,27 +581,28 @@
 Serviços profissionais</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Estágio de Suporte (TI) - Infraestrutura</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Zallpy Digital</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Porto Alegre e Região</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Job Description
 Transformar o futuro de pessoas e empresas com inovação e soluções digitais: esse é o nosso propósito.
@@ -712,27 +638,28 @@
 Tecnologia da informação e serviços</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Estágio de Suporte (TI) - Infraestrutura</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Ponyhof Leiting</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Porto Alegre, RS</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Transformar o futuro de pessoas e empresas com inovação e soluções digitais: esse é o nosso propósito.
 Suprimos as necessidades de desenvolvimento de produtos digitais customizados e com alto valor agregado, inovando em processos, ferramentas e conceitos. Aliamos tecnologias de alto desempenho e atuais no mercado com a expertise de uma equipe multidisciplinar formada por especialistas no segmento.
@@ -756,27 +683,28 @@
 Serviços e consultoria de TI</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Vagas de Estágio e Trainee abertas</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Matchbox</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>São Paulo e Região</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Você conhece a Comunidade Carreiras Matchbox? Não? Então aguenta aí que vou te explicar tu-di-nho A Comunidade Carreiras Matchbox nasceu com o objetivo de contribuir na jornada profissional de quem busca o mercado de trabalho, especialmente através de programas de estágio ou trainee. E nesse projeto temos três iniciativas: Comunidade / Chatbot, onde você responde algumas perguntinhas para mapearmos o seu perfil e recebe alertas sempre que surgir vagas em seu perfil. Além disso, membros da comunidade garantem um desconto exclusivo na Descomplica, o maior centro de ensino digital do Brasil com diversos cursos de graduação, pós e extensão para você turbinar a sua carreira. Aqui na Matchbox estamos com vagas abertas para: Programa de Estágio Sanofi Vagas Pontuais 2023 Graduate Program Schneider Electric 2023 - Trainee Agora convido você a fazer parte de nossa comunidade e vivenciar essa experiência. Tem amigos que possam ter interesse? Compartilhe também! Confira: https://bit.ly/3Jwc5dt
 Vale Transporte; Vale Refeição; Assistência Médica; Seguro de vida; Assistência Odontológica;
@@ -798,68 +726,71 @@
 Serviços profissionais</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Estágio Informática</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Tallentos Soluções</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>São Paulo e Região</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>s - Estágio Técnico em Análise de Sistemas - TI (Chance de efetivação) - CANOAS Auxiliar no desenvolvimento de sistema em linguagem de programação PHP; Testes nos sistemas desenvolvi VER MAIS
-Beneficios
-Não informado
-A combinar
-Estagiário
-Tallentos Soluções
-Empresa que atua no ramo de recursos humanos, sediada em Porto Alegre/RS.
-Recursos Humanos/ Recrutamento e seleção
-Exibir mais
-Nível de experiência
-Pleno-sênior
-Tipo de emprego
-Tempo integral
-Função
-Tecnologia da informação
-Setores
-Serviços de recursos humanos</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://br.linkedin.com/jobs/view/vagas-de-est%C3%A1gio-e-trainee-abertas-at-matchbox-3536485327?refId=iqcDgJHCjj2zwPxowMnP8w%3D%3D&amp;trackingId=ilVrzZSf9Ptwso5lpO38GA%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Estágio em Governança de TI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rockspoon do Brasil Sistemas de Informatica LTDA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>São Paulo, SP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Como parte da equipe de Governança você contribuirá com a rotina de operações em uma startup multinacional. Inglês avançado é indispensável. Responsabilidades: Gestão da infraestrutura; Descrição de cenários testes; Execução de testes; Geração de métricas; Configurar métricas; Teste manual/automatizado; Apoio na criação e execução de CI/CD; Apoiar a criação de IaC (Infrastructure as Code). documentados, implementados e testados para integração. Produzir especificações técnicas detalhadas com base em documentos de requisitos de negócios. Garantir que padrões de projeto, metodologias e documentação de projeto consistentes sejam mantidos em todos os seus projetos de desenvolvimento. ? Trabalhar em estreita colaboração com os analistas de negócios e equipes de suporte para garantir que todos os requisitos técnicos para novos projetos sejam capturados, projetados e desenvolvidos de acordo com esses requisitos. ? Crie estratégias de engenharia de software que ajudem a identificar e mitigar riscos. Iniciativas diretas de melhoria de processos internos. Fornecer feedback sobre os processos, oferecendo sugestões.
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Tempo integral
+Função
+Educação e Treinamento
+Setores
+Treinamento e suporte em sistemas de TI</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-em-governan%C3%A7a-de-ti-at-rockspoon-do-brasil-sistemas-de-informatica-ltda-3537575548?refId=iqcDgJHCjj2zwPxowMnP8w%3D%3D&amp;trackingId=dpmI3KWmRnUU2%2Fz8xKQATg%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Estágio em Compras Diretas - Niterói, RJ</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Baker Hughes</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Niterói, RJ</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Resumo da Função:
 Atuar com suporte a área de Sourcing Diretos, fazer controle de documentos de fornecedores para gate zero (certificados em avanço/green lights) realizando reuniões semanais para mostrar o andamento das atividades e apontando os que são críticos a operação solicitando suporte do time presente, acompanhar as datas de importação e pagamento das invoices junto a Logística Internacional e Finanças. Também prestar suporte logístico em relação ao processo de decisão dos modais de transporte quando necessário, sugerir e acompanhar as oportunidades de melhoria contínua e ser focal point de Sourcing para este tema, auxiliando na criação e desenvolvimento de KPIs e métricas de acompanhamento de desempenho semanal do time. Trabalhar em conjunto com os compradores na emissão e follow up das ordens de compra. Realizar treinamentos onlines pertinentes a área.
@@ -882,27 +813,77 @@
 Petróleo e gás</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Estágio Backoffice | Inclusão de pessoas com deficiência - São Paulo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mendes Talent</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>São Paulo, SP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Somos uma consultoria especializada na atração de candidatos de todos os níveis e setores, e já atendemos a mais de 15 anos em todo o território nacional.
+Na Mendes Talent, valorizamos a diversidade e estamos comprometidos em oferecer as mesmas oportunidades de desenvolvimento para todas as pessoas independente de origem, raça, estado civil, idade, gênero, credo, cultura, classe social ou econômica, situação familiar, gravidez, idioma, orientação sexual, identidade de gênero, deficiência, doença, nacionalidade ou status migratório e/ou qualquer outro motivo.
+Todas as pessoas com deficiência podem se inscrever.
+VAGA: Estágio Backoffice
+Para trabalhar na Faculdade Sebrae, na Secretaria Acadêmica.
+Atendimento ao aluno, atendimento ao docente. Fará emissão de documentos, emissão de diploma.
+Habilidade com o Pacote Office.
+Escolaridade: Cursando ensino superior em Administração, Economia, Contabilidade, TI, Marketing, Engenharia.
+Desejável experiência em rotinas administrativas.
+Laudo Médico: O laudo médico deve estar atualizado.
+Disponibilidade para 30 horas semanais de jornada de trabalho.
+Seguro saúde Unimed
+Previdência privada complementar
+Auxílio-alimentação e/ou refeição
+Vale-transporte
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Tempo integral
+Função
+Administração
+Setores
+Atendimento ao consumidor</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Estágio Superior de Tecnologia Gestao em TI</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Estágio Sul</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Porto Alegre, RS</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Cursando Técnico OU Superior em Análise e Desenvolvimento de Sistemas e áreas afins. Desejável conhecimento em PHP, CSS, HTML5, JavaScript, Bootstrap, MySQl. ATIVIDADES O estagiário auxiliará na atualização, desenvolvimento e programação de WebSites, intranet e extranet, lojas virtuais, manipulação de banco de dados e atualização de textos e imagens.
 Não informado
@@ -922,27 +903,32 @@
 Serviços de recursos humanos</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-superior-de-tecnologia-gestao-em-ti-at-est%C3%A1gio-sul-3536489746?refId=iqcDgJHCjj2zwPxowMnP8w%3D%3D&amp;trackingId=iSVJoUgZyuYHDuSDcqUnMw%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Estágio Superior de Tecnologia Gestao em TI</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Estágio Sul</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Porto Alegre, RS</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Cursando Análise e Desenvolvimento de Sistemas e áreas afins. Desejável conhecimento em Javascript, HTML e CSS3. ATIVIDADES O estagiário auxiliará a prover soluções técnicas para novas features e suporte a features já existentes, desenvolver interfaces responsivas mobile-first comprometendo-se com a usabilidade e fidelidade ao layout, integração de interface com APIs Rest (monolito / microsserviços). Auxiliará ativamente com UX Designer para garantir aderência do design à tecnologia adotada e aplicar boas práticas de codificação.
 Não informado
@@ -962,27 +948,32 @@
 Serviços de recursos humanos</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-superior-de-tecnologia-gestao-em-ti-at-est%C3%A1gio-sul-3536488986?refId=iqcDgJHCjj2zwPxowMnP8w%3D%3D&amp;trackingId=QkidixMYf04JD9TamMCDBw%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Estágio Administracao enfase Gestao de TI</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Estágio Sul</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Porto Alegre, RS</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Atuará nas atividades internas e demais funções pertinentes ao cargo. Necessário experiência na área de atuação.
 Beneficios
@@ -1003,6 +994,51 @@
 Serviços de recursos humanos</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-administracao-enfase-gestao-de-ti-at-est%C3%A1gio-sul-3536480054?refId=iqcDgJHCjj2zwPxowMnP8w%3D%3D&amp;trackingId=o%2F8wQryT%2Bblg2ETDrbSesg%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Estágio Pós Vendas - Comercial</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>VERIBANK</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>São Paulo, SP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vaga de Estágio Pós Vendas - Comercial em São Paulo. A combinar. Período Integral. Estágio Área e especialização profissional: Comercial, Vendas - Atendimento Nível hierárquico: Estagiário Local de trabalho: São Paulo, SP Regime de contratação de tipo Estágio Jornada Período Integral Atribuições: Fidelização de clientes, acompanhamento da usabilidade do sistema, por meio de telefone, Anydesk, reuniões de atendimento via google meet.
+Requisitos: Ensino Superior cursando em administração, gestão comercial ou marketing, TI, Sistema da Informação, que tenham interesse na área comercial; Diferencial: Gostar de interagir com o público através de telefonema ou vídeo conferência, ser proativo, ter um bom relacionamento interpessoal.
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Tempo integral
+Função
+Educação e Treinamento
+Setores
+Consultoria e serviços empresariais</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-p%C3%B3s-vendas-comercial-at-veribank-3537570924?refId=iqcDgJHCjj2zwPxowMnP8w%3D%3D&amp;trackingId=hY3NSdlSeDPGB2A9PwFWMQ%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vagas.xlsx
+++ b/vagas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,61 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Estágio de TI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fibra do Brasil</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Cargo: Estágio de TI Responsabilidades: Configurar e instalar softwares, servidores, roteadores, firewalls e outros dispositivos de rede. Monitorar o desempenho e a integridade da rede, firewall, notificar e aplicar as devidas correções. Resolver questões encaminhadas pelo suporte diagnosticando as infraestruturas local e de nuvem e solucionado seus problemas. Automatizar tarefas e monitorar sua eficácia. Criar, supervisionar e testar medidas de segurança (por exemplo, autenticação de acesso e recuperação de desastre). Comunicar-se com os usuários quando necessário. Manter documentação técnica completa. Sugerir melhorias de desempenho, capacidade e escalabilidade da rede. Projetar e implementar redes funcionais (LAN, WLAN, WAN). Demais atividades pertinentes ao setor. Competências Mínimo Exigido: Ensino superior cursando. Conhecimento em administração, configuração e otimização de Firewalls, roteadores, Switches, redes Wireless, IDS, IPS, Proxies e mecanismos de segurança em geral, além de conhecimento na estruturas de redes LAN, WAN e WLAN, segmentação, roteamento, protocolos e serviços (portas IP), VPN será um diferencial. Desejável: Saber trabalhar em equipe. Espirito de liderança. Ter excelente comunicação e relacionamento interpessoal. Vontade de crescer e se desenvolver dentro da empresa. Capacidade de organizar demandas. Ser atento aos detalhes e ser organizado. Ter comprometimento com prazos e qualidade. Perfil proativo, pontual, com senso analítico, de urgência e estratégico.
+Não informado
+A combinar
+Estagiário
+Fibra do Brasil
+Atua como distribuidora de produtos e matéria-prima para o corte industrial, produtos em metal duro (wideas) e produtos de embalagem e de proteção individual (EPIs).
+Máquinas/ Equipamentos/ Ferramentas
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Fabricação de maquinário</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Estágio em Infraestrutura de TI</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Timenow</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Vitória e Região</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Como você imagina o seu futuro? O que você deseja dele? E, mais importante, o que você está fazendo para que ele se torne possível?
 Há 26 anos temos engenhado um caminho que aponta para novos futuros possíveis, passando pela busca de uma realidade cada vez mais inclusiva, com garantia de respeito e equidade para todos.
@@ -499,47 +540,6 @@
 Fabricação de máquinas de automação</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ESTÁGIO EM INFORMÁTICA (SUPORTE)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Alpha Estágio</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ribeirão Preto, SP</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Se você é apaixonado por informática, se interessa pela área de manutenção em hardware, essa vaga é a sua cara! Nosso cliente é uma empresa com mais de 14 anos no mercado e oferece diversas soluções em T.I. Bolsa Auxílio : R$ 900,00 Horário do Estágio: De segunda a sexta, das 09:00 às 16:00 (1h de intervalo) Benefícios : Auxílio - Transporte: R$200,00 Requisitos : Cursando Superior ou Técnico na área de TI no período noturno ; Conhecimento em manutenção de computadores, Instalação de Rede e de pacote Office. Atividades : Prestar suporte a Sistema Operacional Ms Windows; Auxiliar na configuração de pacote Ms Office; Auxiliar na instalação e configuração de programas; Prestar suporte remoto. Cidade : Ribeirão Preto - SP Região : Jardim Paulista.
-Não informado
-A combinar
-Estágio em informática
-Alpha Estágio
-Empresa atua com recrutamento e seleção.
-Recursos Humanos/ Recrutamento e seleção
-Exibir mais
-Nível de experiência
-Estágio
-Tipo de emprego
-Tempo integral
-Função
-Educação e Treinamento
-Setores
-Serviços de recursos humanos</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -548,61 +548,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Estágio para Cursos na área de tecnologia</t>
+          <t>Estágio de Suporte (TI) - Infraestrutura</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Up Estágio</t>
+          <t>Zallpy Digital</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Brasília, DF</t>
+          <t>Porto Alegre e Região</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>ESTÁGIO PARA CURSOS NA ÁREA DE TECNOLOGIA 3 VAGA(S) ASA SUL Candidato Cursando: Estágio para Cursos na área de tecnologia 3 Vaga(s) A partir do 3 Semestre Local da Vaga: Asa Sul Carga Horária: 06 horas/dia de 08:00 às 14:00 ou de 12:00 às 18:00 ou à combinar Segunda à Sexta-feira Bolsa Auxílio: R$ 1.200,00 + Vale Transporte + Vale alimentação de R$ 930,00 por mês Atividades: Auxiliar projetos de tecnologia, monitoramento de sistemas e atividades correlatas com a área de TI. Inscreva-se em upestagio.com.br ou encaminhe o seu currículo para o email curriculosupestagio.com.br com o título: Estágio para Cursos na área de tecnologia - Asa Sul Requisitos: Ter conhecimentos em desenvolvimento, DBA, ORACLE, MYSQUL, redes, monitoramento de ativos em redes, microsoft, linux, AIX, inglês ou espanhol, noção de virtualização.
-Não informado
-A combinar
-Estágio na área de Tecnologia da Informação
-Up Estágio
-Preparação de documentos e serviços especializados de apoio administrativo não especificados anteriormente
-Serviços
-Exibir mais
-Nível de experiência
-Assistente
-Tipo de emprego
-Tempo integral
-Função
-Educação e Treinamento
-Setores
-Serviços profissionais</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Estágio de Suporte (TI) - Infraestrutura</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Zallpy Digital</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Porto Alegre e Região</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>Job Description
 Transformar o futuro de pessoas e empresas com inovação e soluções digitais: esse é o nosso propósito.
@@ -638,6 +597,49 @@
 Tecnologia da informação e serviços</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Estágio de TI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Executiva Outsourcing</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Segunda a Sexta Feira das 08 as 14:15hrs - com 15min de intervalo
+Beneficios
+Formação Acadêmica:
+Não informado
+A combinar
+Estagiário
+EXECUTIVA OUTSOURCING
+Atividades de consultoria em gestão empresarial, exceto consultoria técnica específica
+Consultoria/ Auditoria
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Serviços profissionais</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -646,20 +648,102 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>ESTÁGIO EM INFORMÁTICA (SUPORTE)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Alpha Estágio</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ribeirão Preto, SP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Se você é apaixonado por informática, se interessa pela área de manutenção em hardware, essa vaga é a sua cara! Nosso cliente é uma empresa com mais de 14 anos no mercado e oferece diversas soluções em T.I. Bolsa Auxílio : R$ 900,00 Horário do Estágio: De segunda a sexta, das 09:00 às 16:00 (1h de intervalo) Benefícios : Auxílio - Transporte: R$200,00 Requisitos : Cursando Superior ou Técnico na área de TI no período noturno ; Conhecimento em manutenção de computadores, Instalação de Rede e de pacote Office. Atividades : Prestar suporte a Sistema Operacional Ms Windows; Auxiliar na configuração de pacote Ms Office; Auxiliar na instalação e configuração de programas; Prestar suporte remoto. Cidade : Ribeirão Preto - SP Região : Jardim Paulista.
+Não informado
+A combinar
+Estágio em informática
+Alpha Estágio
+Empresa atua com recrutamento e seleção.
+Recursos Humanos/ Recrutamento e seleção
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Tempo integral
+Função
+Educação e Treinamento
+Setores
+Serviços de recursos humanos</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Estágio para Cursos na área de tecnologia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Up Estágio</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Brasília, DF</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ESTÁGIO PARA CURSOS NA ÁREA DE TECNOLOGIA 3 VAGA(S) ASA SUL Candidato Cursando: Estágio para Cursos na área de tecnologia 3 Vaga(s) A partir do 3 Semestre Local da Vaga: Asa Sul Carga Horária: 06 horas/dia de 08:00 às 14:00 ou de 12:00 às 18:00 ou à combinar Segunda à Sexta-feira Bolsa Auxílio: R$ 1.200,00 + Vale Transporte + Vale alimentação de R$ 930,00 por mês Atividades: Auxiliar projetos de tecnologia, monitoramento de sistemas e atividades correlatas com a área de TI. Inscreva-se em upestagio.com.br ou encaminhe o seu currículo para o email curriculosupestagio.com.br com o título: Estágio para Cursos na área de tecnologia - Asa Sul Requisitos: Ter conhecimentos em desenvolvimento, DBA, ORACLE, MYSQUL, redes, monitoramento de ativos em redes, microsoft, linux, AIX, inglês ou espanhol, noção de virtualização.
+Não informado
+A combinar
+Estágio na área de Tecnologia da Informação
+Up Estágio
+Preparação de documentos e serviços especializados de apoio administrativo não especificados anteriormente
+Serviços
+Exibir mais
+Nível de experiência
+Assistente
+Tipo de emprego
+Tempo integral
+Função
+Educação e Treinamento
+Setores
+Serviços profissionais</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Estágio de Suporte (TI) - Infraestrutura</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Ponyhof Leiting</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Porto Alegre, RS</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Transformar o futuro de pessoas e empresas com inovação e soluções digitais: esse é o nosso propósito.
 Suprimos as necessidades de desenvolvimento de produtos digitais customizados e com alto valor agregado, inovando em processos, ferramentas e conceitos. Aliamos tecnologias de alto desempenho e atuais no mercado com a expertise de uma equipe multidisciplinar formada por especialistas no segmento.
@@ -683,28 +767,28 @@
 Serviços e consultoria de TI</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Vagas de Estágio e Trainee abertas</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Matchbox</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>São Paulo e Região</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Você conhece a Comunidade Carreiras Matchbox? Não? Então aguenta aí que vou te explicar tu-di-nho A Comunidade Carreiras Matchbox nasceu com o objetivo de contribuir na jornada profissional de quem busca o mercado de trabalho, especialmente através de programas de estágio ou trainee. E nesse projeto temos três iniciativas: Comunidade / Chatbot, onde você responde algumas perguntinhas para mapearmos o seu perfil e recebe alertas sempre que surgir vagas em seu perfil. Além disso, membros da comunidade garantem um desconto exclusivo na Descomplica, o maior centro de ensino digital do Brasil com diversos cursos de graduação, pós e extensão para você turbinar a sua carreira. Aqui na Matchbox estamos com vagas abertas para: Programa de Estágio Sanofi Vagas Pontuais 2023 Graduate Program Schneider Electric 2023 - Trainee Agora convido você a fazer parte de nossa comunidade e vivenciar essa experiência. Tem amigos que possam ter interesse? Compartilhe também! Confira: https://bit.ly/3Jwc5dt
 Vale Transporte; Vale Refeição; Assistência Médica; Seguro de vida; Assistência Odontológica;
@@ -726,94 +810,11 @@
 Serviços profissionais</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://br.linkedin.com/jobs/view/vagas-de-est%C3%A1gio-e-trainee-abertas-at-matchbox-3536485327?refId=iqcDgJHCjj2zwPxowMnP8w%3D%3D&amp;trackingId=ilVrzZSf9Ptwso5lpO38GA%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Estágio em Governança de TI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Rockspoon do Brasil Sistemas de Informatica LTDA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>São Paulo, SP</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Como parte da equipe de Governança você contribuirá com a rotina de operações em uma startup multinacional. Inglês avançado é indispensável. Responsabilidades: Gestão da infraestrutura; Descrição de cenários testes; Execução de testes; Geração de métricas; Configurar métricas; Teste manual/automatizado; Apoio na criação e execução de CI/CD; Apoiar a criação de IaC (Infrastructure as Code). documentados, implementados e testados para integração. Produzir especificações técnicas detalhadas com base em documentos de requisitos de negócios. Garantir que padrões de projeto, metodologias e documentação de projeto consistentes sejam mantidos em todos os seus projetos de desenvolvimento. ? Trabalhar em estreita colaboração com os analistas de negócios e equipes de suporte para garantir que todos os requisitos técnicos para novos projetos sejam capturados, projetados e desenvolvidos de acordo com esses requisitos. ? Crie estratégias de engenharia de software que ajudem a identificar e mitigar riscos. Iniciativas diretas de melhoria de processos internos. Fornecer feedback sobre os processos, oferecendo sugestões.
-Exibir mais
-Nível de experiência
-Estágio
-Tipo de emprego
-Tempo integral
-Função
-Educação e Treinamento
-Setores
-Treinamento e suporte em sistemas de TI</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-em-governan%C3%A7a-de-ti-at-rockspoon-do-brasil-sistemas-de-informatica-ltda-3537575548?refId=iqcDgJHCjj2zwPxowMnP8w%3D%3D&amp;trackingId=dpmI3KWmRnUU2%2Fz8xKQATg%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Estágio em Compras Diretas - Niterói, RJ</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Baker Hughes</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Niterói, RJ</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Resumo da Função:
-Atuar com suporte a área de Sourcing Diretos, fazer controle de documentos de fornecedores para gate zero (certificados em avanço/green lights) realizando reuniões semanais para mostrar o andamento das atividades e apontando os que são críticos a operação solicitando suporte do time presente, acompanhar as datas de importação e pagamento das invoices junto a Logística Internacional e Finanças. Também prestar suporte logístico em relação ao processo de decisão dos modais de transporte quando necessário, sugerir e acompanhar as oportunidades de melhoria contínua e ser focal point de Sourcing para este tema, auxiliando na criação e desenvolvimento de KPIs e métricas de acompanhamento de desempenho semanal do time. Trabalhar em conjunto com os compradores na emissão e follow up das ordens de compra. Realizar treinamentos onlines pertinentes a área.
-(dividida em 4 partes – atividades diferentes ou acrescimo de atividades a cada 6 meses)
-6 meses – Apresentação do Deck de Sourcing com as métricas de POR / POR Cycle Time / Gate 1 RM e PP. Estruturação das métricas de POR e Gate 0 e 1. Suporte ao fornecedor no portal iSupplier.
-1 ano: + Abertura do Workflow de Premium Transportation + Estruturação do Controle de Kaizen.
-1,5 ano: + Criação do procedimento do Kaizen/apoio na estruturação e criação de novos programas de KPIs junto ao TI.
-2 anos: Criação do Tableau de PO Acknowledgement. Suporte na implementação do Repetro-Sped com os fornecedores de diretos. Treinamento do Jovem Aprendiz para atividades de iSupplier e PT
-We are an energy technology company that provides solutions to energy and industrial customers worldwide. Built on a century of experience and conducting business in over 120 countries, our innovative technologies and services are taking energy forward – making it safer, cleaner and more efficient for people and the planet.
-Are you seeking an opportunity to make a real difference in a company that values innovation and progress? Join us and become part of a team of people who will challenge and inspire you! Let’s come together and take energy forward.
-Baker Hughes Company is an Equal Opportunity Employer. Employment decisions are made without regard to race, color, religion, national or ethnic origin, sex, sexual orientation, gender identity or expression, age, disability, protected veteran status or other characteristics protected by law.
-Exibir mais
-Nível de experiência
-Estágio
-Tipo de emprego
-Meio período
-Função
-Educação e Treinamento
-Setores
-Petróleo e gás</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://br.linkedin.com/jobs/view/vagas-de-est%C3%A1gio-e-trainee-abertas-at-matchbox-3536485327?refId=OMWwu7kbZfnnXPfNx2P17Q%3D%3D&amp;trackingId=ie93tw4miZNAaWvX4wTSuA%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -821,20 +822,105 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Estágio em Governança de TI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Rockspoon do Brasil Sistemas de Informatica LTDA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>São Paulo, SP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Como parte da equipe de Governança você contribuirá com a rotina de operações em uma startup multinacional. Inglês avançado é indispensável. Responsabilidades: Gestão da infraestrutura; Descrição de cenários testes; Execução de testes; Geração de métricas; Configurar métricas; Teste manual/automatizado; Apoio na criação e execução de CI/CD; Apoiar a criação de IaC (Infrastructure as Code). documentados, implementados e testados para integração. Produzir especificações técnicas detalhadas com base em documentos de requisitos de negócios. Garantir que padrões de projeto, metodologias e documentação de projeto consistentes sejam mantidos em todos os seus projetos de desenvolvimento. ? Trabalhar em estreita colaboração com os analistas de negócios e equipes de suporte para garantir que todos os requisitos técnicos para novos projetos sejam capturados, projetados e desenvolvidos de acordo com esses requisitos. ? Crie estratégias de engenharia de software que ajudem a identificar e mitigar riscos. Iniciativas diretas de melhoria de processos internos. Fornecer feedback sobre os processos, oferecendo sugestões.
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Tempo integral
+Função
+Educação e Treinamento
+Setores
+Treinamento e suporte em sistemas de TI</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-em-governan%C3%A7a-de-ti-at-rockspoon-do-brasil-sistemas-de-informatica-ltda-3537575548?refId=OMWwu7kbZfnnXPfNx2P17Q%3D%3D&amp;trackingId=P2KyMgl%2F4wRd8sBMJ7KGAQ%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Estágio Informática</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Tallentos Soluções</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>São Paulo e Região</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>s - Estágio Técnico em Análise de Sistemas - TI (Chance de efetivação) - CANOAS Auxiliar no desenvolvimento de sistema em linguagem de programação PHP; Testes nos sistemas desenvolvi VER MAIS
+Beneficios
+Não informado
+A combinar
+Estagiário
+Tallentos Soluções
+Empresa que atua no ramo de recursos humanos, sediada em Porto Alegre/RS.
+Recursos Humanos/ Recrutamento e seleção
+Exibir mais
+Nível de experiência
+Pleno-sênior
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Serviços de recursos humanos</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-inform%C3%A1tica-at-tallentos-solu%C3%A7%C3%B5es-3536459478?refId=OMWwu7kbZfnnXPfNx2P17Q%3D%3D&amp;trackingId=k%2BVasgUD7gXPWlDuKrvJ6g%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Estágio Backoffice | Inclusão de pessoas com deficiência - São Paulo</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Mendes Talent</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>São Paulo, SP</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Somos uma consultoria especializada na atração de candidatos de todos os níveis e setores, e já atendemos a mais de 15 anos em todo o território nacional.
 Na Mendes Talent, valorizamos a diversidade e estamos comprometidos em oferecer as mesmas oportunidades de desenvolvimento para todas as pessoas independente de origem, raça, estado civil, idade, gênero, credo, cultura, classe social ou econômica, situação familiar, gravidez, idioma, orientação sexual, identidade de gênero, deficiência, doença, nacionalidade ou status migratório e/ou qualquer outro motivo.
@@ -862,28 +948,72 @@
 Atendimento ao consumidor</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Estágio em Compras Diretas - Niterói, RJ</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Baker Hughes</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Niterói, RJ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Resumo da Função:
+Atuar com suporte a área de Sourcing Diretos, fazer controle de documentos de fornecedores para gate zero (certificados em avanço/green lights) realizando reuniões semanais para mostrar o andamento das atividades e apontando os que são críticos a operação solicitando suporte do time presente, acompanhar as datas de importação e pagamento das invoices junto a Logística Internacional e Finanças. Também prestar suporte logístico em relação ao processo de decisão dos modais de transporte quando necessário, sugerir e acompanhar as oportunidades de melhoria contínua e ser focal point de Sourcing para este tema, auxiliando na criação e desenvolvimento de KPIs e métricas de acompanhamento de desempenho semanal do time. Trabalhar em conjunto com os compradores na emissão e follow up das ordens de compra. Realizar treinamentos onlines pertinentes a área.
+(dividida em 4 partes – atividades diferentes ou acrescimo de atividades a cada 6 meses)
+6 meses – Apresentação do Deck de Sourcing com as métricas de POR / POR Cycle Time / Gate 1 RM e PP. Estruturação das métricas de POR e Gate 0 e 1. Suporte ao fornecedor no portal iSupplier.
+1 ano: + Abertura do Workflow de Premium Transportation + Estruturação do Controle de Kaizen.
+1,5 ano: + Criação do procedimento do Kaizen/apoio na estruturação e criação de novos programas de KPIs junto ao TI.
+2 anos: Criação do Tableau de PO Acknowledgement. Suporte na implementação do Repetro-Sped com os fornecedores de diretos. Treinamento do Jovem Aprendiz para atividades de iSupplier e PT
+We are an energy technology company that provides solutions to energy and industrial customers worldwide. Built on a century of experience and conducting business in over 120 countries, our innovative technologies and services are taking energy forward – making it safer, cleaner and more efficient for people and the planet.
+Are you seeking an opportunity to make a real difference in a company that values innovation and progress? Join us and become part of a team of people who will challenge and inspire you! Let’s come together and take energy forward.
+Baker Hughes Company is an Equal Opportunity Employer. Employment decisions are made without regard to race, color, religion, national or ethnic origin, sex, sexual orientation, gender identity or expression, age, disability, protected veteran status or other characteristics protected by law.
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Meio período
+Função
+Educação e Treinamento
+Setores
+Petróleo e gás</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Estágio Superior de Tecnologia Gestao em TI</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Estágio Sul</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Porto Alegre, RS</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Cursando Técnico OU Superior em Análise e Desenvolvimento de Sistemas e áreas afins. Desejável conhecimento em PHP, CSS, HTML5, JavaScript, Bootstrap, MySQl. ATIVIDADES O estagiário auxiliará na atualização, desenvolvimento e programação de WebSites, intranet e extranet, lojas virtuais, manipulação de banco de dados e atualização de textos e imagens.
 Não informado
@@ -903,32 +1033,32 @@
 Serviços de recursos humanos</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-superior-de-tecnologia-gestao-em-ti-at-est%C3%A1gio-sul-3536489746?refId=iqcDgJHCjj2zwPxowMnP8w%3D%3D&amp;trackingId=iSVJoUgZyuYHDuSDcqUnMw%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-superior-de-tecnologia-gestao-em-ti-at-est%C3%A1gio-sul-3536489746?refId=OMWwu7kbZfnnXPfNx2P17Q%3D%3D&amp;trackingId=36aJzSZb5pZEY9MUdC63WA%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Estágio Superior de Tecnologia Gestao em TI</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Estágio Sul</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Porto Alegre, RS</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Cursando Análise e Desenvolvimento de Sistemas e áreas afins. Desejável conhecimento em Javascript, HTML e CSS3. ATIVIDADES O estagiário auxiliará a prover soluções técnicas para novas features e suporte a features já existentes, desenvolver interfaces responsivas mobile-first comprometendo-se com a usabilidade e fidelidade ao layout, integração de interface com APIs Rest (monolito / microsserviços). Auxiliará ativamente com UX Designer para garantir aderência do design à tecnologia adotada e aplicar boas práticas de codificação.
 Não informado
@@ -948,32 +1078,72 @@
 Serviços de recursos humanos</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-superior-de-tecnologia-gestao-em-ti-at-est%C3%A1gio-sul-3536488986?refId=iqcDgJHCjj2zwPxowMnP8w%3D%3D&amp;trackingId=QkidixMYf04JD9TamMCDBw%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-superior-de-tecnologia-gestao-em-ti-at-est%C3%A1gio-sul-3536488986?refId=OMWwu7kbZfnnXPfNx2P17Q%3D%3D&amp;trackingId=hn8uQXk%2Fs1jb%2F9uHUk5hrQ%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Estágio Pós Vendas - Comercial</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>VERIBANK</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>São Paulo, SP</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vaga de Estágio Pós Vendas - Comercial em São Paulo. A combinar. Período Integral. Estágio Área e especialização profissional: Comercial, Vendas - Atendimento Nível hierárquico: Estagiário Local de trabalho: São Paulo, SP Regime de contratação de tipo Estágio Jornada Período Integral Atribuições: Fidelização de clientes, acompanhamento da usabilidade do sistema, por meio de telefone, Anydesk, reuniões de atendimento via google meet.
+Requisitos: Ensino Superior cursando em administração, gestão comercial ou marketing, TI, Sistema da Informação, que tenham interesse na área comercial; Diferencial: Gostar de interagir com o público através de telefonema ou vídeo conferência, ser proativo, ter um bom relacionamento interpessoal.
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Tempo integral
+Função
+Educação e Treinamento
+Setores
+Consultoria e serviços empresariais</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-p%C3%B3s-vendas-comercial-at-veribank-3537570924?refId=OMWwu7kbZfnnXPfNx2P17Q%3D%3D&amp;trackingId=l4MBGC4u1gz8roc3%2B7DniQ%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Estágio Administracao enfase Gestao de TI</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Estágio Sul</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Porto Alegre, RS</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Atuará nas atividades internas e demais funções pertinentes ao cargo. Necessário experiência na área de atuação.
 Beneficios
@@ -994,49 +1164,9 @@
 Serviços de recursos humanos</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-administracao-enfase-gestao-de-ti-at-est%C3%A1gio-sul-3536480054?refId=iqcDgJHCjj2zwPxowMnP8w%3D%3D&amp;trackingId=o%2F8wQryT%2Bblg2ETDrbSesg%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Estágio Pós Vendas - Comercial</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>VERIBANK</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>São Paulo, SP</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Vaga de Estágio Pós Vendas - Comercial em São Paulo. A combinar. Período Integral. Estágio Área e especialização profissional: Comercial, Vendas - Atendimento Nível hierárquico: Estagiário Local de trabalho: São Paulo, SP Regime de contratação de tipo Estágio Jornada Período Integral Atribuições: Fidelização de clientes, acompanhamento da usabilidade do sistema, por meio de telefone, Anydesk, reuniões de atendimento via google meet.
-Requisitos: Ensino Superior cursando em administração, gestão comercial ou marketing, TI, Sistema da Informação, que tenham interesse na área comercial; Diferencial: Gostar de interagir com o público através de telefonema ou vídeo conferência, ser proativo, ter um bom relacionamento interpessoal.
-Exibir mais
-Nível de experiência
-Estágio
-Tipo de emprego
-Tempo integral
-Função
-Educação e Treinamento
-Setores
-Consultoria e serviços empresariais</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-p%C3%B3s-vendas-comercial-at-veribank-3537570924?refId=iqcDgJHCjj2zwPxowMnP8w%3D%3D&amp;trackingId=hY3NSdlSeDPGB2A9PwFWMQ%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-administracao-enfase-gestao-de-ti-at-est%C3%A1gio-sul-3536480054?refId=OMWwu7kbZfnnXPfNx2P17Q%3D%3D&amp;trackingId=N46jvt%2BQJFB0jwv54g7Qtg%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
     </row>

--- a/vagas.xlsx
+++ b/vagas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,37 +507,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Estágio em Infraestrutura de TI</t>
+          <t>Estagiário (a) Infraestrutura de TI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Timenow</t>
+          <t>APTA Soluções</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Vitória e Região</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Como você imagina o seu futuro? O que você deseja dele? E, mais importante, o que você está fazendo para que ele se torne possível?
-Há 26 anos temos engenhado um caminho que aponta para novos futuros possíveis, passando pela busca de uma realidade cada vez mais inclusiva, com garantia de respeito e equidade para todos.
-Neste ano, decidimos dar um passo à frente para mudarmos, de fato, a realidade. Afinal, o futuro é agora e queremos que você esteja nele conosco.
-Que tal ser um Time Player?
-O Time Players é o programa de estágio da Timenow. Por aqui, temos o compromisso de contribuir com a formação profissional e com o desenvolvimento de pessoas, além do incentivo à inovação e diversidade.
-.
-Então, se você quer trabalhar em um ambiente que incentiva o seu crescimento e experimentar a cultura de uma empresa que une a tradição da engenharia com a transformação provocada pela inovação, VEM SER TIME PLAYER! 💚
-Exibir mais
-Nível de experiência
-Não aplicável
-Tipo de emprego
-Tempo integral
-Função
-Educação e Treinamento
-Setores
-Fabricação de máquinas de automação</t>
+          <t>Estamos buscando novos talentos para nosso time, e aqui na APTA procuramos profissionais que queiram se desenvolver em um ambiente exigente e com desafios reais da indústria nacional. Estamos procurando pessoas que assumam responsabilidades e queiram trabalhar em um time multidisciplinar que tem prazer em compartilhar oportunidades para que você se destaque e aprenda com os melhores. Queremos alguém que nos ajude a continuar construindo uma organização incrível.
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Estágio
+Função
+Tecnologia da informação
+Setores
+Consultoria e serviços empresariais</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -548,53 +542,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Estágio de Suporte (TI) - Infraestrutura</t>
+          <t>Estagiário de TI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Zallpy Digital</t>
+          <t>adn.tech</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Porto Alegre e Região</t>
+          <t>São Paulo, SP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Job Description
-Transformar o futuro de pessoas e empresas com inovação e soluções digitais: esse é o nosso propósito.
-Suprimos as necessidades de desenvolvimento de produtos digitais customizados e com alto valor agregado, inovando em processos, ferramentas e conceitos. Aliamos tecnologias de alto desempenho e atuais no mercado com a expertise de uma equipe multidisciplinar formada por especialistas no segmento.
-Contamos com um ambiente colaborativo e aberto para pessoas e pequenas empresas que buscam mais inspiração.
-Se identificou? Queremos te conhecer!
-👉 https://zallpy.com/ 😉
-Responsibilities and assignments
-Additional information
-Profissionais dinâmicos,colaborativos, com foco em resultados e apaixonados por tecnologia e inovação que goste de desafios e que tenham o desejo de crescer conosco.
-Uma galera incrível e uma equipe unida;
-Energia positiva e o clima perfeito;
-Oportunidades de aprendizado todos os dias;
-Nossos dias são uma constante evolução.
-!
-OLÁ, SOMOS A ZALLPY! 🚀
-Imagine uma empresa focada em reunir talentos para acelerar a transformação digital do mundo em que vivemos.
-Muito prazer, somos a Zallpy!
-Desenvolvemos soluções digitais customizadas, com tecnologia de ponta e de alto impacto. Somos parceiros estratégicos de grandes empresas internacionais, entregando inovação e inteligência a multinacionais de diversos segmentos. A gente atua como uma extensão do cliente, com alto grau de envolvimento no negócio e na geração de resultados.
-Seja no remoto ou presencial nossa cultura de trabalho é leve, colaborativa e integrada, inspirando a troca de experiências e a criatividade.
-Atuamos em diferentes modelos, com flexibilidade e agilidade para compor os times conforme a demanda, oferecendo o perfil e expertise técnico mais adequado para cada desafio.
-Na Zallpy acreditamos na diversidade, na equidade e na inclusão, e investimos para que nosso espaço de trabalho seja um local de crescimento profissional e pessoal para todos. Em 2021, criamos nossa comunidade de Diversidade, Equidade e Inclusão com o objetivo de realizar uma série de ações e debates sobre as questões de gênero, raça, pessoas com deficiência e LGBTQIAP+.
-Mais do que uma empresa que gera empregos, a Zallpy é uma criadora de oportunidades, descobrindo e formando talentos para o mercado que mais cresce no mundo.
-Vem fazer carreira na Zallpy.
-Exibir mais
-Nível de experiência
-Estágio
-Tipo de emprego
-Tempo integral
-Função
-Educação e Treinamento
-Setores
-Tecnologia da informação e serviços</t>
+          <t>DESAFIO:
+Integrar o time da fábrica de criação de soluções adn.tech. Vem fazer parte do nosso time!!
+ATIVIDADES:
+Atuar no segmento de Infraestrutura de TI junto à unidade de Gente e Gestão e demais parceiros internos e externos:
+REQUISITOS OBRIGATÓRIOS/DESEJÁVEIS:
+DADOS DA VAGA:
+Bolsa Auxílio de R$ 1.000,00; Ticket refeição; Trabalho Home Office; DayOff; Programa de Saúde (Pró-Saúde).
+#VemSerADN.TECH
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Estágio
+Função
+Tecnologia da informação
+Setores
+Serviços e consultoria de TI</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -605,20 +584,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Estagiário de TI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>St Marche</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>São Paulo, SP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Geral
+A17
+Prestar suporte ao usuário, necessário para garantir o bom funcionamento dos equipamentos com substituição, configuração e instalação de funcionalidades;
+Elaborar documentações técnicas;
+Responsavel pelo processo de inventarioado do parque tecnologico Matriz e Lojas; Responsável pela administração do inventário
+Zelar pela conservação e guarda dos equipamentos e materiais, bem como do espaço físico a ser utilizado;
+Organizar e controlar os materiais necessários para execução das tarefas de operação;
+Requisitos
+Estudos
+Ensino Superior
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Varejo</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IT Intern</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Integration Consulting</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>São Paulo, SP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>At our São Paulo office, we offer candidates the opportunity to be part of an innovative, multinational team and actively participate in the company's growth. Our consulting professionals work in an international and dynamic environment in direct contact with the management level of multinational clients. If you are curious by nature, eager to take on responsibility, seeking to make a difference, and want to drive the growth of Integration together with a diverse team, then you might be a great fit for our !
+We seek professionals interested in management consulting to apply for our
+We are recruiting high-performing individuals from all degree disciplines who have an entrepreneurial spark and can demonstrate passion and commitment for making a difference to our clients – and to us. Our professionals embody our culture of confidence and collaboration. They look at every experience as a learning opportunity, constantly strive to develop themselves and show leadership potential.
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Meio período
+Função
+Tecnologia da informação
+Setores
+Consultoria e serviços empresariais</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Estagiário em TI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Orguel</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Olá, que bom receber você aqui!
+Você é estudante da Tecnologia de Informação?! Tem sede de conhecimento e quer ter a oportunidade de conciliar a teoria acadêmica com a prática?! Tem facilidade e se identifica com a área infraestrutura de equipamentos como servidores, hardwares, softwares e telecom. É apaixonado pela área da Tecnologia?! Essa oportunidade é para você. Leia atentamente as informações abaixo e candidate-se logo em seguida.
+Realização de suporte a operação de infraestrutura de TI e seus serviços associados com soluções técnicas que compõem esses ambientes.
+Dar suporte na administração de toda a infraestrutura de equipamentos como servidores, hardwares, softwares e telecom.
+Dar suporte no gerenciamento e manutenção de redes.
+Dar suporte na administração de equipamentos de rede Switches e Storages, rotinas de backup, instalação e substituição de servidores Windows.
+Analisar e encontrar oportunidades de melhorias continua na infraestrutura e propor ajustes se necessário.
+Dar suporte na administração e controlar acesso dos colaboradores a recursos como e-mail, diretórios de rede, impressoras, telefonia, internet, wi-fi e sistemas.
+Suporte ao usuário.
+Identificar problemas e buscar a causa raiz, encontrando soluções e sugerindo ações preventivas para antecipar futuros problemas.
+Elaborar relatórios que auxiliem níveis superiores na tomada de decisão.
+e manutenção de redes.
+Exibir mais
+Nível de experiência
+Não aplicável
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Fabricação de maquinário</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Estagiário de TI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>RH Ser Consultoria Empresarial</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Natal, RN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Auxiliar no desenvolvimento de produtos da agência utilizando a linguagem de front-end html, css, javascript e bootstrap, ou back-end em ruby, framework ruby on rails ou banco de dados MongoDB.
+Beneficios
+Não informado
+A combinar
+Estagiário
+Rh Ser Consultoria Empresarial
+Atividades de consultoria em gestão empresarial, exceto consultoria técnica específica.
+Recursos Humanos/ Recrutamento e seleção
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Serviços de recursos humanos</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Estágio de TI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Executiva Outsourcing</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Brasil</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Segunda a Sexta Feira das 08 as 14:15hrs - com 15min de intervalo
 Beneficios
@@ -640,181 +788,7 @@
 Serviços profissionais</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ESTÁGIO EM INFORMÁTICA (SUPORTE)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Alpha Estágio</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Ribeirão Preto, SP</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Se você é apaixonado por informática, se interessa pela área de manutenção em hardware, essa vaga é a sua cara! Nosso cliente é uma empresa com mais de 14 anos no mercado e oferece diversas soluções em T.I. Bolsa Auxílio : R$ 900,00 Horário do Estágio: De segunda a sexta, das 09:00 às 16:00 (1h de intervalo) Benefícios : Auxílio - Transporte: R$200,00 Requisitos : Cursando Superior ou Técnico na área de TI no período noturno ; Conhecimento em manutenção de computadores, Instalação de Rede e de pacote Office. Atividades : Prestar suporte a Sistema Operacional Ms Windows; Auxiliar na configuração de pacote Ms Office; Auxiliar na instalação e configuração de programas; Prestar suporte remoto. Cidade : Ribeirão Preto - SP Região : Jardim Paulista.
-Não informado
-A combinar
-Estágio em informática
-Alpha Estágio
-Empresa atua com recrutamento e seleção.
-Recursos Humanos/ Recrutamento e seleção
-Exibir mais
-Nível de experiência
-Estágio
-Tipo de emprego
-Tempo integral
-Função
-Educação e Treinamento
-Setores
-Serviços de recursos humanos</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Estágio para Cursos na área de tecnologia</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Up Estágio</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Brasília, DF</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ESTÁGIO PARA CURSOS NA ÁREA DE TECNOLOGIA 3 VAGA(S) ASA SUL Candidato Cursando: Estágio para Cursos na área de tecnologia 3 Vaga(s) A partir do 3 Semestre Local da Vaga: Asa Sul Carga Horária: 06 horas/dia de 08:00 às 14:00 ou de 12:00 às 18:00 ou à combinar Segunda à Sexta-feira Bolsa Auxílio: R$ 1.200,00 + Vale Transporte + Vale alimentação de R$ 930,00 por mês Atividades: Auxiliar projetos de tecnologia, monitoramento de sistemas e atividades correlatas com a área de TI. Inscreva-se em upestagio.com.br ou encaminhe o seu currículo para o email curriculosupestagio.com.br com o título: Estágio para Cursos na área de tecnologia - Asa Sul Requisitos: Ter conhecimentos em desenvolvimento, DBA, ORACLE, MYSQUL, redes, monitoramento de ativos em redes, microsoft, linux, AIX, inglês ou espanhol, noção de virtualização.
-Não informado
-A combinar
-Estágio na área de Tecnologia da Informação
-Up Estágio
-Preparação de documentos e serviços especializados de apoio administrativo não especificados anteriormente
-Serviços
-Exibir mais
-Nível de experiência
-Assistente
-Tipo de emprego
-Tempo integral
-Função
-Educação e Treinamento
-Setores
-Serviços profissionais</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Estágio de Suporte (TI) - Infraestrutura</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Ponyhof Leiting</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Porto Alegre, RS</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Transformar o futuro de pessoas e empresas com inovação e soluções digitais: esse é o nosso propósito.
-Suprimos as necessidades de desenvolvimento de produtos digitais customizados e com alto valor agregado, inovando em processos, ferramentas e conceitos. Aliamos tecnologias de alto desempenho e atuais no mercado com a expertise de uma equipe multidisciplinar formada por especialistas no segmento.
-Contamos com um ambiente colaborativo e aberto para pessoas e pequenas empresas que buscam mais inspiração.
-Se identificou? Queremos te conhecer!
-👉 https://zallpy.com/ 😉
-Profissionais dinâmicos,colaborativos, com foco em resultados e apaixonados por tecnologia e inovação que goste de desafios e que tenham o desejo de crescer conosco.
-Uma galera incrível e uma equipe unida;
-Energia positiva e o clima perfeito;
-Oportunidades de aprendizado todos os dias;
-Nossos dias são uma constante evolução.
-!
-Exibir mais
-Nível de experiência
-Não aplicável
-Tipo de emprego
-Tempo integral
-Função
-Educação e Treinamento
-Setores
-Serviços e consultoria de TI</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Vagas de Estágio e Trainee abertas</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Matchbox</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>São Paulo e Região</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Você conhece a Comunidade Carreiras Matchbox? Não? Então aguenta aí que vou te explicar tu-di-nho A Comunidade Carreiras Matchbox nasceu com o objetivo de contribuir na jornada profissional de quem busca o mercado de trabalho, especialmente através de programas de estágio ou trainee. E nesse projeto temos três iniciativas: Comunidade / Chatbot, onde você responde algumas perguntinhas para mapearmos o seu perfil e recebe alertas sempre que surgir vagas em seu perfil. Além disso, membros da comunidade garantem um desconto exclusivo na Descomplica, o maior centro de ensino digital do Brasil com diversos cursos de graduação, pós e extensão para você turbinar a sua carreira. Aqui na Matchbox estamos com vagas abertas para: Programa de Estágio Sanofi Vagas Pontuais 2023 Graduate Program Schneider Electric 2023 - Trainee Agora convido você a fazer parte de nossa comunidade e vivenciar essa experiência. Tem amigos que possam ter interesse? Compartilhe também! Confira: https://bit.ly/3Jwc5dt
-Vale Transporte; Vale Refeição; Assistência Médica; Seguro de vida; Assistência Odontológica;
-Superior Cursando em: Administração, Contabilidade, Economia, Engenharias, Marketing, Publicidade e Propaganda, T.I e outros
-Cursando para vagas de Estágio Superior completo para vagas de Trainee
-A combinar
-Estagiário
-Matchbox
-Atua com consultoria em tecnologia da informação.
-Consultoria/ Auditoria
-Exibir mais
-Nível de experiência
-Estágio
-Tipo de emprego
-Tempo integral
-Função
-Educação e Treinamento
-Setores
-Serviços profissionais</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>https://br.linkedin.com/jobs/view/vagas-de-est%C3%A1gio-e-trainee-abertas-at-matchbox-3536485327?refId=OMWwu7kbZfnnXPfNx2P17Q%3D%3D&amp;trackingId=ie93tw4miZNAaWvX4wTSuA%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -822,12 +796,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Estágio em Governança de TI</t>
+          <t>Estagiário de TI (Dev Front)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rockspoon do Brasil Sistemas de Informatica LTDA</t>
+          <t>Takao</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -837,23 +811,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Como parte da equipe de Governança você contribuirá com a rotina de operações em uma startup multinacional. Inglês avançado é indispensável. Responsabilidades: Gestão da infraestrutura; Descrição de cenários testes; Execução de testes; Geração de métricas; Configurar métricas; Teste manual/automatizado; Apoio na criação e execução de CI/CD; Apoiar a criação de IaC (Infrastructure as Code). documentados, implementados e testados para integração. Produzir especificações técnicas detalhadas com base em documentos de requisitos de negócios. Garantir que padrões de projeto, metodologias e documentação de projeto consistentes sejam mantidos em todos os seus projetos de desenvolvimento. ? Trabalhar em estreita colaboração com os analistas de negócios e equipes de suporte para garantir que todos os requisitos técnicos para novos projetos sejam capturados, projetados e desenvolvidos de acordo com esses requisitos. ? Crie estratégias de engenharia de software que ajudem a identificar e mitigar riscos. Iniciativas diretas de melhoria de processos internos. Fornecer feedback sobre os processos, oferecendo sugestões.
-Exibir mais
-Nível de experiência
-Estágio
-Tipo de emprego
-Tempo integral
-Função
-Educação e Treinamento
-Setores
-Treinamento e suporte em sistemas de TI</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-em-governan%C3%A7a-de-ti-at-rockspoon-do-brasil-sistemas-de-informatica-ltda-3537575548?refId=OMWwu7kbZfnnXPfNx2P17Q%3D%3D&amp;trackingId=P2KyMgl%2F4wRd8sBMJ7KGAQ%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
+          <t>Já pensou em trabalhar em um lugar em constante transformação, inovação, colaboração e crescimento?
+Aqui na Goop é o lugar!
+Nossa marca Takao é uma das mais fortes do segmento de peças para motores no Brasil! Nosso propósito é ser a solução completa para manutenção e reposição automotiva. Procuramos pessoas engajados em melhorar a experiência de nossos clientes. Estamos falando de uma empresa que cresce mais de 30% ao ano!
+Nosso time é especializado no que faz, desde o desenvolvimento da peça até o pós-vendas.
+Por aqui trabalhamos com graxa na veia. Nosso negócio é feito de garra, ousadia, olho no olho e alta performance.
+Se você gosta de aprender e reaprender todos os dias em um ambiente que respeita quem você é, reconhece as suas habilidades e promove o seu desenvolvimento então aqui é o seu lugar.
+desenvolver melhorias no nosso e-commerce B2B para a empresa continuar crescendo!
+fazer a empresa faturar mais com o desenvolvimento de melhorias no e-commerce B2B, ajudando o time.
+Mas como se já tiver algum conhecimento em programação front end , será bem vindo!
+Estamos em regime híbrido!
+Ou seja, de segunda e sexta estamos em home office e terça, quarta e quinta na empresa presencial (Vila Maria - SP).
+Exibir mais
+Nível de experiência
+Não aplicável
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Atendimento ao consumidor</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -861,32 +841,579 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Estágio Informática</t>
+          <t>ESTAGIARIO DE TECNOLOGIA DA INFORMAÇÃO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tallentos Soluções</t>
+          <t>Aegea Saneamento e Participações S.A.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Campo Grande, MS</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>s - Estágio Técnico em Análise de Sistemas - TI (Chance de efetivação) - CANOAS Auxiliar no desenvolvimento de sistema em linguagem de programação PHP; Testes nos sistemas desenvolvi VER MAIS
-Beneficios
+          <t>Por que trabalhar conosco?
+Porque somos a empresa líder no setor privado de saneamento básico no Brasil. Trabalhamos por um futuro sustentável, colocando nossa paixão em prática fazendo a diferença nos 178 municípios em que atuamos. Levamos saúde, qualidade de vida e dignidade para mais de aproximadamente 26 milhões de pessoas. Somos inspirados a transformar o futuro e melhorar a forma que as pessoas vivem. Empenhamos todos os esforços para contribuir com a sociedade por meio de inovações e serviços que vão além do tratamento e da distribuição de água e esgotamento sanitário. Nossa paixão é tornar cada dia melhor tanto o ambiente que oferecemos a nossos colaboradores, bem como nos serviços que entregamos. Somos uma marca que pede licença para melhorar a vida da população de dezenas de cidades, levando saúde, dignidade e bem-estar.
+O programa nasceu com a meta de espelhar a demografia da população brasileira no quadro de funcionários da empresa.
+A partir de 2020 passou por uma revisão e seu objetivo foi reconfigurado: espelhar a população negra em todos os níveis hierárquicos.
+Em 2022 a Aegea emitiu um título sustentável atrelado a metas que incluem alcançar 45% de mulheres e 27% de negros em cargos de liderança até 2030, sendo pioneira em se comprometer com meta de diversidade racial em cargos de liderança.
+Exibir mais
+Nível de experiência
+Não aplicável
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Serviços públicos</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Estágio de TI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SHOULDER</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>São Paulo, SP</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Atuará na área do TI com foco em pagamento de contas da área e backoffice em geral.
+Responsabilidades e atribuições
+Pagamento a fornecedores, contas de consumo, impostos e tributos;
+Envio e armazenamento de comprovantes;
+Inclusão de pagamentos em geral no sistema ERP Linx;
+Auxílio nos processos financeiros.
+Pacote office básico.
+Organização
+Exibir mais
+Nível de experiência
+Não aplicável
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Varejo</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Estagiário de T.I</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Atmo Digital</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>São Paulo, SP</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Atendimento de chamados, prestar suporte aos usuários da empresa, atender as demandas internas dos setores. Comunicação objetiva; Conhecimento Pacote Office e Windows; Proativo; Desenvolver bom trabalho em equipe;
+Nível de experiência
+Estágio
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Mídia de áudio e vídeo on-line</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Estágio de TI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MoveOn</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Configurar rede, pacote office, instalação de impressoras, instalação de programas, suporte TI geral, receber máquinas, liberar as máquinas, manutenção no geral Atendimento a pequenas empresas e pessoas físicas Conhecimento no Pacote office, experiência com instalação de programas Conhecimento para suporte de computadores
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Serviços de gestão estratégica</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Estagiário de TI (Fortaleza/CE)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Alares Internet</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fortaleza, CE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Você gosta de trabalhar em equipe? É uma pessoa proativa?
+Venha ser nosso(a) Estagiário(a), e compartilhar conexões com nosso time, contribuindo com organização e planejamento para um ambiente de trabalho produtivo e descomplicado.
+O nosso time de TI está aguardando você!
+#vemseralares
+#vagasalares
+Exibir mais
+Nível de experiência
+Não aplicável
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Telecomunicações</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Estágio em TI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Moderna Emprego</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Será responsável por presta suporte técnico aos usuários buscando solucionar problemas em geral de todos os componentes da rede corporativa da empresa como servidores, estações de trabalho impressoras, circuitos de telecomunicações, dentre outros.
+Superior cursando.
+Não é necessário experiência.
+A combinar
+Estágio em TI
+Moderna Emprego
+Fornecimento e gestão de recursos humanos para terceiros .
+Recursos Humanos/ Recrutamento e seleção
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Serviços de recursos humanos</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Estagiário TI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Qualiserve IT Experience</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>São Caetano do Sul, SP</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>A Qualiserve está em busca de um Estagiário de TI para fazer parte do nosso time. Você que é apaixonado (a) por tecnologia e quer começar sua carreira profissional da melhor forma atuando um ambiente dinâmico, colaborativo e de desenvolvimento continuo. Então não perde tempo, inscreva-se já!
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Estágio
+Função
+Tecnologia da informação
+Setores
+Serviços e consultoria de TI</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Escola de Programadores 2023 - Programa Trainee de Automação</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sanmartin Brasil</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Caxias do Sul, RS</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Para exercer a função é esperado que o trainee tenha facilidade de aprendizado, esteja conectado ao mundo digital e as novas tendências tecnológicas, tenha pró-atividade, consiga se relacionar e transitar nos diversos níveis da organização, trabalhe de forma colaborativa, seja crítico, busque o conhecimento, seja comprometido, responsável e que execute suas atividades com excelência, alto desempenho e qualidade.
+Nosso trainee . Vamos ter o maior prazer em ajudar você neste processo de construção do conhecimento em nossos produtos e tecnologias;
+O programa tem 01 ano de duração, conta com uma imersão em nossa cultura, diversos treinamentos específicos na área de automação e após pode ser provido, consolidando sua carreira Sanmartin
+Salário + benefícios + treinamentos = Carreira Sanmartin
+,
+Os pré-requisitos avaliados para fazer parte da nossa Escola de Programadores:
+Não perca esta oportunidade e #vemsersanmartin
+De segunda a quinta-feira das 07:30h às 17:30h
+Sexta-feira das 07h30 às 16h30
+Exibir mais
+Nível de experiência
+Pleno-sênior
+Tipo de emprego
+Tempo integral
+Função
+Administração
+Setores
+Fabricação de máquinas de automação, Transporte, Logística, Cadeia de Suprimentos e Armazenamento e Atacado de importação e exportação</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Estagiário de T.I</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Grupo Servopa</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Curitiba, PR</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Auxiliar nas atividades da área de T.I. do Grupo Servopa.
+Responsabilidades e atribuições
+Apoio ao setor de T.I.
+Atendimento a usuários.
+Ensino superior cursando em áreas relacionadas à computação;
+Conhecimento Word e Excel;
+Desejável conhecimento em programação.
+Local de trabalho: Servopa Matriz - Rua Rockfeller, 1118 - Rebouças - Curitiba/PR;
+Bolsa auxílio: R$950,00 + VT;
+Horário: 08h às 15h ou 12h às 18h.
+Exibir mais
+Nível de experiência
+Não aplicável
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Fabricação de veículos</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Estagiário de TI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>VIA CAPITAL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, MG</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Você também acha que a parte mais importante nas organizações são as pessoas? Então, temos uma oportunidade aguardando por você, aqui na Via Capital. Setor: TI Horário: 11:00 às 17:15 - Segunda a Sexta Local de trabalho: Funcionários, Belo Horizonte/MG Remuneração: Bolsa de R$1.400,00 Vantagens e benefícios: Alimentação + vale-transporte no Cartão Caju(flexibilidade em forma de benefício); Aula de Yoga e aula de meditação. REQUISITOS DA VAGA
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Serviços de gestão estratégica</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://br.linkedin.com/jobs/view/estagi%C3%A1rio-de-ti-at-via-capital-3530955951?refId=XAa%2B6Gy%2FBMTDw8adRBeBHA%3D%3D&amp;trackingId=5c90zlq1L%2BXPkSznv6bQaQ%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Estagiário em TI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Hospital e Clínica São Lucas</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Palhoça, SC</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>DESCRIÇÃOREQUISITOS
+Atendimento e suporte em geral aos colaboradores;
+Troca de consumíveis de impressoras;
+Criação de usuários e manutenção de cadastros em sistemas;
+Curso Técnico
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Hospitais e atendimento à saúde</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Estágio em TI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>EB Corporate</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>São Paulo, SP</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>DESCRIÇÃOREQUISITOS
+Realizar atendimento aos colaboradores;
+Resolver chamados e suporte ao usuário voltados para assuntos diversos.
+Local de trabalho: São Paulo, SP
+Ensino Médio (2º Grau)
+Menos de 1 ano
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Serviços de recursos humanos</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Estagiário de T.I (Help Desk)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ERG Engenharia</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Mariana, MG</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Auxílio no suporte ao usuário (help desk); Realização e conferência de back-ups; Auxílio na manutenção de computadores; Apoio na configuração de rede; Apoio na controle de registros e documentação de TI; Controle de suprimentos do setor.
+Nível de experiência
+Estágio
+Tipo de emprego
+Tempo integral
+Função
+Tecnologia da informação
+Setores
+Empreiteiros de estruturas de edifícios e externas</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Estagio</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Sicoob</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Brasília, DF</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Horário: De segunda à sexta, 6h diárias com 15 minutos de intervalo
+Contratação: Estágio
+Nível: Estágio
+A área deestá com oportunidades para
+A Área de Atendimento ao Cooperado é responsável pelo atendimento/suporte aos produtos e serviços do Sicoob que hoje estão no escopo das nossas Centrais de Atendimento.
+A equipe de Planejamento e Controle é responsável por realizar a projeção atendimento, dimensionar a Central com base nos indicadores acordados, criar e atualizar os relatórios e painéis de acompanhamento.
+Então, se você é uma pessoa está vaga pode ser para você.
+Além das habilidades descritas, o setor precisa de uma pessoa com
+Day off - fim de ano, Gympass, Plano de Saúde, Plano Odontológico, Programa de Mobilidade Interna - Match Oportunidades Internas, Seguro de Vida, Universidade Corporativa Sicoob, Vale-alimentação, Vale-refeição, Vale-transporte (opcional)
+Exibir mais
+Nível de experiência
+Estágio
+Tipo de emprego
+Outro
+Função
+Educação e Treinamento
+Setores
+Serviços financeiros</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Estágio em TI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>RHF Talentos</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Itagiba, RS</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ATRIBUIÇÕES: - Suporte ao usuário final; - Atendimento de chamados, instalação e manutenção de equipamentos; - Auxiliar na administração de ambientes computacionais, mapeando riscos e levantando vulnerabilidades; - Auxiliar na instalação e configuração de SO, fazendo o controle de acessos aos ambientes corporativos; - Auxiliar no gerenciamento de banco de dados; - Montar relatórios, preencher registros, planilhas e controles gerais dos hardwares e softwares do escritório. REQUISITOS: Superior cursando em Engenharia da Computação, Engenharia de Software, Sistemas da Informação ou Tecnologia da Informação a partir do 5 semestre; Conhecimento em manutenção de computadores, notebooks e impressoras; Conhecimento intermediário no pacote Office. DIFERENCIAIS (Não são requisitos obrigatórios, você irá se destacar se tiver) Conhecimento em redes; Conhecimento em banco de dados. BENEFÍCIOS: Bolsa Auxílio: R$ 1.300,00 Vale Alimentação: R$ 824,00 Assistência Médica e Odontológica Vale Transporte JORNADA: Segunda à sexta das 08:00 às 14:00 LOCAL DA VAGA: Fazenda Santa Rita, s/n, Itagibá - BA, 45585-000 SOBRE A EMPRESA: A Atlantic Nickel é uma empresa brasileira e o seu produto é o Concentrado de Níquel. A mina fica localizada no sul da Bahia, no município de Itagibá, a apenas 140km do Aeroporto de Ilhéus, 110km das belas praias de Itacaré e a 370km de Salvador. Conta também com um escritório corporativo em Belo Horizonte-MG. O foco de produção da empresa é o concentrado de Níquel de alta qualidade, com teores 13% a 15% de Ni. A Atlantic Nickel concentra seus investimentos na produção de concentrado de níquel e acredita no aquecimento da demanda internacional pelo minério, incentivada pelo aumento da produção de baterias, veículos elétricos e aço inoxidável. Em maio de 2019 lançou sua nova marca, alinhada com sua estratégia de longo prazo, gerando valor para toda a cadeia produtiva. A marca Atlantic Nickel nasce com o posicionamento de buscar um crescimento sustentável, mantendo seu compromisso com a responsabilidade socioambiental e com o desenvolvimento das localidades onde está inserida, estimulando o fortalecimento de todo o setor.
 Não informado
 A combinar
 Estagiário
-Tallentos Soluções
-Empresa que atua no ramo de recursos humanos, sediada em Porto Alegre/RS.
+RHF Talentos
+Atua como consultoria de RH.
 Recursos Humanos/ Recrutamento e seleção
 Exibir mais
 Nível de experiência
-Pleno-sênior
+Estágio
 Tipo de emprego
 Tempo integral
 Função
@@ -895,280 +1422,52 @@
 Serviços de recursos humanos</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-inform%C3%A1tica-at-tallentos-solu%C3%A7%C3%B5es-3536459478?refId=OMWwu7kbZfnnXPfNx2P17Q%3D%3D&amp;trackingId=k%2BVasgUD7gXPWlDuKrvJ6g%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Estágio Backoffice | Inclusão de pessoas com deficiência - São Paulo</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mendes Talent</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>São Paulo, SP</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Somos uma consultoria especializada na atração de candidatos de todos os níveis e setores, e já atendemos a mais de 15 anos em todo o território nacional.
-Na Mendes Talent, valorizamos a diversidade e estamos comprometidos em oferecer as mesmas oportunidades de desenvolvimento para todas as pessoas independente de origem, raça, estado civil, idade, gênero, credo, cultura, classe social ou econômica, situação familiar, gravidez, idioma, orientação sexual, identidade de gênero, deficiência, doença, nacionalidade ou status migratório e/ou qualquer outro motivo.
-Todas as pessoas com deficiência podem se inscrever.
-VAGA: Estágio Backoffice
-Para trabalhar na Faculdade Sebrae, na Secretaria Acadêmica.
-Atendimento ao aluno, atendimento ao docente. Fará emissão de documentos, emissão de diploma.
-Habilidade com o Pacote Office.
-Escolaridade: Cursando ensino superior em Administração, Economia, Contabilidade, TI, Marketing, Engenharia.
-Desejável experiência em rotinas administrativas.
-Laudo Médico: O laudo médico deve estar atualizado.
-Disponibilidade para 30 horas semanais de jornada de trabalho.
-Seguro saúde Unimed
-Previdência privada complementar
-Auxílio-alimentação e/ou refeição
-Vale-transporte
-Exibir mais
-Nível de experiência
-Estágio
-Tipo de emprego
-Tempo integral
-Função
-Administração
-Setores
-Atendimento ao consumidor</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Estágio em Compras Diretas - Niterói, RJ</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Baker Hughes</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Niterói, RJ</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Resumo da Função:
-Atuar com suporte a área de Sourcing Diretos, fazer controle de documentos de fornecedores para gate zero (certificados em avanço/green lights) realizando reuniões semanais para mostrar o andamento das atividades e apontando os que são críticos a operação solicitando suporte do time presente, acompanhar as datas de importação e pagamento das invoices junto a Logística Internacional e Finanças. Também prestar suporte logístico em relação ao processo de decisão dos modais de transporte quando necessário, sugerir e acompanhar as oportunidades de melhoria contínua e ser focal point de Sourcing para este tema, auxiliando na criação e desenvolvimento de KPIs e métricas de acompanhamento de desempenho semanal do time. Trabalhar em conjunto com os compradores na emissão e follow up das ordens de compra. Realizar treinamentos onlines pertinentes a área.
-(dividida em 4 partes – atividades diferentes ou acrescimo de atividades a cada 6 meses)
-6 meses – Apresentação do Deck de Sourcing com as métricas de POR / POR Cycle Time / Gate 1 RM e PP. Estruturação das métricas de POR e Gate 0 e 1. Suporte ao fornecedor no portal iSupplier.
-1 ano: + Abertura do Workflow de Premium Transportation + Estruturação do Controle de Kaizen.
-1,5 ano: + Criação do procedimento do Kaizen/apoio na estruturação e criação de novos programas de KPIs junto ao TI.
-2 anos: Criação do Tableau de PO Acknowledgement. Suporte na implementação do Repetro-Sped com os fornecedores de diretos. Treinamento do Jovem Aprendiz para atividades de iSupplier e PT
-We are an energy technology company that provides solutions to energy and industrial customers worldwide. Built on a century of experience and conducting business in over 120 countries, our innovative technologies and services are taking energy forward – making it safer, cleaner and more efficient for people and the planet.
-Are you seeking an opportunity to make a real difference in a company that values innovation and progress? Join us and become part of a team of people who will challenge and inspire you! Let’s come together and take energy forward.
-Baker Hughes Company is an Equal Opportunity Employer. Employment decisions are made without regard to race, color, religion, national or ethnic origin, sex, sexual orientation, gender identity or expression, age, disability, protected veteran status or other characteristics protected by law.
-Exibir mais
-Nível de experiência
-Estágio
-Tipo de emprego
-Meio período
-Função
-Educação e Treinamento
-Setores
-Petróleo e gás</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Estágio Superior de Tecnologia Gestao em TI</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Estágio Sul</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Porto Alegre, RS</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Cursando Técnico OU Superior em Análise e Desenvolvimento de Sistemas e áreas afins. Desejável conhecimento em PHP, CSS, HTML5, JavaScript, Bootstrap, MySQl. ATIVIDADES O estagiário auxiliará na atualização, desenvolvimento e programação de WebSites, intranet e extranet, lojas virtuais, manipulação de banco de dados e atualização de textos e imagens.
-Não informado
-A combinar
-Estagiário
-Estágio Sul
-Agência de estágios.
-Estágio
-Exibir mais
-Nível de experiência
-Assistente
-Tipo de emprego
-Tempo integral
-Função
-Tecnologia da informação
-Setores
-Serviços de recursos humanos</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-superior-de-tecnologia-gestao-em-ti-at-est%C3%A1gio-sul-3536489746?refId=OMWwu7kbZfnnXPfNx2P17Q%3D%3D&amp;trackingId=36aJzSZb5pZEY9MUdC63WA%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Estágio Superior de Tecnologia Gestao em TI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Estágio Sul</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Porto Alegre, RS</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Cursando Análise e Desenvolvimento de Sistemas e áreas afins. Desejável conhecimento em Javascript, HTML e CSS3. ATIVIDADES O estagiário auxiliará a prover soluções técnicas para novas features e suporte a features já existentes, desenvolver interfaces responsivas mobile-first comprometendo-se com a usabilidade e fidelidade ao layout, integração de interface com APIs Rest (monolito / microsserviços). Auxiliará ativamente com UX Designer para garantir aderência do design à tecnologia adotada e aplicar boas práticas de codificação.
-Não informado
-A combinar
-Estagiário
-Estágio Sul
-Agência de estágios.
-Estágio
-Exibir mais
-Nível de experiência
-Assistente
-Tipo de emprego
-Tempo integral
-Função
-Tecnologia da informação
-Setores
-Serviços de recursos humanos</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-superior-de-tecnologia-gestao-em-ti-at-est%C3%A1gio-sul-3536488986?refId=OMWwu7kbZfnnXPfNx2P17Q%3D%3D&amp;trackingId=hn8uQXk%2Fs1jb%2F9uHUk5hrQ%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Estágio Pós Vendas - Comercial</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>VERIBANK</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>São Paulo, SP</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Vaga de Estágio Pós Vendas - Comercial em São Paulo. A combinar. Período Integral. Estágio Área e especialização profissional: Comercial, Vendas - Atendimento Nível hierárquico: Estagiário Local de trabalho: São Paulo, SP Regime de contratação de tipo Estágio Jornada Período Integral Atribuições: Fidelização de clientes, acompanhamento da usabilidade do sistema, por meio de telefone, Anydesk, reuniões de atendimento via google meet.
-Requisitos: Ensino Superior cursando em administração, gestão comercial ou marketing, TI, Sistema da Informação, que tenham interesse na área comercial; Diferencial: Gostar de interagir com o público através de telefonema ou vídeo conferência, ser proativo, ter um bom relacionamento interpessoal.
-Exibir mais
-Nível de experiência
-Estágio
-Tipo de emprego
-Tempo integral
-Função
-Educação e Treinamento
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Estagiário(a) de T.I. - Brasília - DF</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Talent Gestão de Pessoas</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Brasília, DF</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Estamos em busca de Talentos que queiram aprender e se desenvolver no mundo corporativo e que tenham garra e paixão pelo que fazem.
+Responsabilidades e atribuições
+Recepcionar problemas;
+Organizar e discutir com a equipe de desenvolvimento as soluções;
+Orientar usuários com uso do sistema;
+Criar tutoriais.
+Ensino superior cursando em Gestão da Tecnologia da informação e/ou áreas afins (1º ao 2º período);
+Habilidade com pacote office nível intermediário;
+Disponibilidade para 30h/semanais (segunda a sexta - 8h às 14h).
+Bolsa: R$ 800,00.
+Benefícios: Vale transporte + seguro de vida.
+Exibir mais
+Nível de experiência
+Não aplicável
+Tipo de emprego
+Tempo integral
+Função
+Outro
 Setores
 Consultoria e serviços empresariais</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-p%C3%B3s-vendas-comercial-at-veribank-3537570924?refId=OMWwu7kbZfnnXPfNx2P17Q%3D%3D&amp;trackingId=l4MBGC4u1gz8roc3%2B7DniQ%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Estágio Administracao enfase Gestao de TI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Estágio Sul</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Porto Alegre, RS</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Atuará nas atividades internas e demais funções pertinentes ao cargo. Necessário experiência na área de atuação.
-Beneficios
-Não informado
-A combinar
-Estagiário
-Estágio Sul
-Agência de estágios.
-Estágio
-Exibir mais
-Nível de experiência
-Assistente
-Tipo de emprego
-Tempo integral
-Função
-Administração
-Setores
-Serviços de recursos humanos</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>https://br.linkedin.com/jobs/view/est%C3%A1gio-administracao-enfase-gestao-de-ti-at-est%C3%A1gio-sul-3536480054?refId=OMWwu7kbZfnnXPfNx2P17Q%3D%3D&amp;trackingId=N46jvt%2BQJFB0jwv54g7Qtg%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
